--- a/Passwords for SikhsinIndia.xlsx
+++ b/Passwords for SikhsinIndia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
